--- a/protocols/test_protocol.xlsx
+++ b/protocols/test_protocol.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G79"/>
+  <dimension ref="A1:G27"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -528,7 +528,7 @@
         <v>24</v>
       </c>
       <c r="C7" s="3" t="n">
-        <v>23.96</v>
+        <v>23.95</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
@@ -546,7 +546,7 @@
         <v>24</v>
       </c>
       <c r="C8" s="3" t="n">
-        <v>23.82</v>
+        <v>23.86</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
@@ -582,6 +582,17 @@
           <t>OUT1</t>
         </is>
       </c>
+      <c r="B10" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="C10" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>&lt;=15%</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -589,6 +600,17 @@
           <t>OUT2</t>
         </is>
       </c>
+      <c r="B11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="C11" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>&lt;=15%</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -605,12 +627,12 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>&gt;500 mA</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t xml:space="preserve"> </t>
+          <t>1.2</t>
         </is>
       </c>
     </row>
@@ -657,6 +679,26 @@
           <t>min, U</t>
         </is>
       </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.0</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -664,6 +706,26 @@
           <t>nom, U</t>
         </is>
       </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>24.0</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -671,6 +733,26 @@
           <t>max, U</t>
         </is>
       </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>32.0</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>ok</t>
+        </is>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -755,659 +837,7 @@
         </is>
       </c>
     </row>
-    <row r="27">
-      <c r="A27" s="1" t="inlineStr">
-        <is>
-          <t>Серийный номер</t>
-        </is>
-      </c>
-    </row>
-    <row r="28">
-      <c r="A28" t="inlineStr">
-        <is>
-          <t>4710007413</t>
-        </is>
-      </c>
-    </row>
-    <row r="29">
-      <c r="A29" s="1" t="inlineStr">
-        <is>
-          <t>Версия ПО</t>
-        </is>
-      </c>
-      <c r="B29" s="1" t="inlineStr">
-        <is>
-          <t>Фактическая</t>
-        </is>
-      </c>
-    </row>
-    <row r="30">
-      <c r="A30" t="inlineStr">
-        <is>
-          <t>1.2.3.8</t>
-        </is>
-      </c>
-      <c r="B30" t="inlineStr">
-        <is>
-          <t>1.2.3.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="31">
-      <c r="A31" s="1" t="inlineStr">
-        <is>
-          <t>Канал, U</t>
-        </is>
-      </c>
-      <c r="B31" s="2" t="inlineStr">
-        <is>
-          <t>Unom</t>
-        </is>
-      </c>
-      <c r="C31" s="2" t="inlineStr">
-        <is>
-          <t>Ufact</t>
-        </is>
-      </c>
-      <c r="D31" s="1" t="inlineStr">
-        <is>
-          <t>Uerror_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="32">
-      <c r="A32" t="inlineStr">
-        <is>
-          <t>IN1</t>
-        </is>
-      </c>
-      <c r="B32" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C32" s="3" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D32" t="inlineStr">
-        <is>
-          <t>&lt;=5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="33">
-      <c r="A33" t="inlineStr">
-        <is>
-          <t>IN2</t>
-        </is>
-      </c>
-      <c r="B33" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C33" s="3" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="D33" t="inlineStr">
-        <is>
-          <t>&lt;=5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="34">
-      <c r="A34" t="inlineStr">
-        <is>
-          <t>IN3</t>
-        </is>
-      </c>
-      <c r="B34" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C34" s="3" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="D34" t="inlineStr">
-        <is>
-          <t>&lt;=5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="35">
-      <c r="A35" s="1" t="inlineStr">
-        <is>
-          <t>Канал, I</t>
-        </is>
-      </c>
-      <c r="B35" s="1" t="inlineStr">
-        <is>
-          <t>Inom</t>
-        </is>
-      </c>
-      <c r="C35" s="1" t="inlineStr">
-        <is>
-          <t>Ifact</t>
-        </is>
-      </c>
-      <c r="D35" s="1" t="inlineStr">
-        <is>
-          <t>Ierror_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>OUT1</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>OUT2</t>
-        </is>
-      </c>
-    </row>
-    <row r="38">
-      <c r="A38" s="1" t="inlineStr">
-        <is>
-          <t>OUT1/OUT2, A</t>
-        </is>
-      </c>
-      <c r="B38" s="1" t="inlineStr">
-        <is>
-          <t>diff_value, A</t>
-        </is>
-      </c>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" s="1" t="inlineStr">
-        <is>
-          <t>Пороги, U</t>
-        </is>
-      </c>
-      <c r="B40" s="1" t="inlineStr">
-        <is>
-          <t>U_IN1</t>
-        </is>
-      </c>
-      <c r="C40" s="1" t="inlineStr">
-        <is>
-          <t>ResIN1</t>
-        </is>
-      </c>
-      <c r="D40" s="1" t="inlineStr">
-        <is>
-          <t>U_IN2</t>
-        </is>
-      </c>
-      <c r="E40" s="1" t="inlineStr">
-        <is>
-          <t>ResIN2</t>
-        </is>
-      </c>
-      <c r="F40" s="1" t="inlineStr">
-        <is>
-          <t>U_IN3</t>
-        </is>
-      </c>
-      <c r="G40" s="1" t="inlineStr">
-        <is>
-          <t>ResIN3</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>min, U</t>
-        </is>
-      </c>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>nom, U</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>max, U</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" s="1" t="inlineStr">
-        <is>
-          <t>Переключение каналов</t>
-        </is>
-      </c>
-      <c r="B44" s="1" t="inlineStr">
-        <is>
-          <t>Канал 1</t>
-        </is>
-      </c>
-      <c r="C44" s="1" t="inlineStr">
-        <is>
-          <t>Время, t</t>
-        </is>
-      </c>
-      <c r="D44" s="1" t="inlineStr">
-        <is>
-          <t>Канал 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>Под Imin 0A</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>Под Imax 10A</t>
-        </is>
-      </c>
-    </row>
-    <row r="47">
-      <c r="A47" s="1" t="inlineStr">
-        <is>
-          <t>Работа ТЭН</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" s="1" t="inlineStr">
-        <is>
-          <t>Аварийные режимы</t>
-        </is>
-      </c>
-      <c r="B49" s="1" t="inlineStr">
-        <is>
-          <t>Результат</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>Режим КЗ</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>Режим перегрузки</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>Обрыв связи датчика</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" s="1" t="inlineStr">
-        <is>
-          <t>Серийный номер</t>
-        </is>
-      </c>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>4710007413</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" s="1" t="inlineStr">
-        <is>
-          <t>Версия ПО</t>
-        </is>
-      </c>
-      <c r="B55" s="1" t="inlineStr">
-        <is>
-          <t>Фактическая</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>1.2.3.8</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>1.2.3.8</t>
-        </is>
-      </c>
-    </row>
-    <row r="57">
-      <c r="A57" s="1" t="inlineStr">
-        <is>
-          <t>Канал, U</t>
-        </is>
-      </c>
-      <c r="B57" s="2" t="inlineStr">
-        <is>
-          <t>Unom</t>
-        </is>
-      </c>
-      <c r="C57" s="2" t="inlineStr">
-        <is>
-          <t>Ufact</t>
-        </is>
-      </c>
-      <c r="D57" s="1" t="inlineStr">
-        <is>
-          <t>Uerror_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="58">
-      <c r="A58" t="inlineStr">
-        <is>
-          <t>IN1</t>
-        </is>
-      </c>
-      <c r="B58" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C58" s="3" t="n">
-        <v>23.8</v>
-      </c>
-      <c r="D58" t="inlineStr">
-        <is>
-          <t>&lt;=5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="59">
-      <c r="A59" t="inlineStr">
-        <is>
-          <t>IN2</t>
-        </is>
-      </c>
-      <c r="B59" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C59" s="3" t="n">
-        <v>23.95</v>
-      </c>
-      <c r="D59" t="inlineStr">
-        <is>
-          <t>&lt;=5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="60">
-      <c r="A60" t="inlineStr">
-        <is>
-          <t>IN3</t>
-        </is>
-      </c>
-      <c r="B60" s="3" t="n">
-        <v>24</v>
-      </c>
-      <c r="C60" s="3" t="n">
-        <v>23.84</v>
-      </c>
-      <c r="D60" t="inlineStr">
-        <is>
-          <t>&lt;=5%</t>
-        </is>
-      </c>
-    </row>
-    <row r="61">
-      <c r="A61" s="1" t="inlineStr">
-        <is>
-          <t>Канал, I</t>
-        </is>
-      </c>
-      <c r="B61" s="1" t="inlineStr">
-        <is>
-          <t>Inom</t>
-        </is>
-      </c>
-      <c r="C61" s="1" t="inlineStr">
-        <is>
-          <t>Ifact</t>
-        </is>
-      </c>
-      <c r="D61" s="1" t="inlineStr">
-        <is>
-          <t>Ierror_rate</t>
-        </is>
-      </c>
-    </row>
-    <row r="62">
-      <c r="A62" t="inlineStr">
-        <is>
-          <t>OUT1</t>
-        </is>
-      </c>
-      <c r="B62" t="n">
-        <v>2.2</v>
-      </c>
-      <c r="C62" t="n">
-        <v>2.3</v>
-      </c>
-      <c r="D62" t="inlineStr">
-        <is>
-          <t>&lt;=15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="63">
-      <c r="A63" t="inlineStr">
-        <is>
-          <t>OUT2</t>
-        </is>
-      </c>
-      <c r="B63" t="n">
-        <v>2.1</v>
-      </c>
-      <c r="C63" t="n">
-        <v>2.37</v>
-      </c>
-      <c r="D63" t="inlineStr">
-        <is>
-          <t>&lt;=15%</t>
-        </is>
-      </c>
-    </row>
-    <row r="64">
-      <c r="A64" s="1" t="inlineStr">
-        <is>
-          <t>OUT1/OUT2, A</t>
-        </is>
-      </c>
-      <c r="B64" s="1" t="inlineStr">
-        <is>
-          <t>diff_value, A</t>
-        </is>
-      </c>
-    </row>
-    <row r="65">
-      <c r="A65" t="inlineStr">
-        <is>
-          <t>&lt;=500 mA</t>
-        </is>
-      </c>
-      <c r="B65" t="inlineStr">
-        <is>
-          <t>0.47</t>
-        </is>
-      </c>
-    </row>
-    <row r="66">
-      <c r="A66" s="1" t="inlineStr">
-        <is>
-          <t>Пороги, U</t>
-        </is>
-      </c>
-      <c r="B66" s="1" t="inlineStr">
-        <is>
-          <t>U_IN1</t>
-        </is>
-      </c>
-      <c r="C66" s="1" t="inlineStr">
-        <is>
-          <t>ResIN1</t>
-        </is>
-      </c>
-      <c r="D66" s="1" t="inlineStr">
-        <is>
-          <t>U_IN2</t>
-        </is>
-      </c>
-      <c r="E66" s="1" t="inlineStr">
-        <is>
-          <t>ResIN2</t>
-        </is>
-      </c>
-      <c r="F66" s="1" t="inlineStr">
-        <is>
-          <t>U_IN3</t>
-        </is>
-      </c>
-      <c r="G66" s="1" t="inlineStr">
-        <is>
-          <t>ResIN3</t>
-        </is>
-      </c>
-    </row>
-    <row r="67">
-      <c r="A67" t="inlineStr">
-        <is>
-          <t>min, U</t>
-        </is>
-      </c>
-    </row>
-    <row r="68">
-      <c r="A68" t="inlineStr">
-        <is>
-          <t>nom, U</t>
-        </is>
-      </c>
-    </row>
-    <row r="69">
-      <c r="A69" t="inlineStr">
-        <is>
-          <t>max, U</t>
-        </is>
-      </c>
-    </row>
-    <row r="70">
-      <c r="A70" s="1" t="inlineStr">
-        <is>
-          <t>Переключение каналов</t>
-        </is>
-      </c>
-      <c r="B70" s="1" t="inlineStr">
-        <is>
-          <t>Канал 1</t>
-        </is>
-      </c>
-      <c r="C70" s="1" t="inlineStr">
-        <is>
-          <t>Время, t</t>
-        </is>
-      </c>
-      <c r="D70" s="1" t="inlineStr">
-        <is>
-          <t>Канал 2</t>
-        </is>
-      </c>
-    </row>
-    <row r="71">
-      <c r="A71" t="inlineStr">
-        <is>
-          <t>Под Imin 0A</t>
-        </is>
-      </c>
-    </row>
-    <row r="72">
-      <c r="A72" t="inlineStr">
-        <is>
-          <t>Под Imax 10A</t>
-        </is>
-      </c>
-    </row>
-    <row r="73">
-      <c r="A73" s="1" t="inlineStr">
-        <is>
-          <t>Работа ТЭН</t>
-        </is>
-      </c>
-    </row>
-    <row r="74">
-      <c r="A74" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> </t>
-        </is>
-      </c>
-    </row>
-    <row r="75">
-      <c r="A75" s="1" t="inlineStr">
-        <is>
-          <t>Аварийные режимы</t>
-        </is>
-      </c>
-      <c r="B75" s="1" t="inlineStr">
-        <is>
-          <t>Результат</t>
-        </is>
-      </c>
-    </row>
-    <row r="76">
-      <c r="A76" t="inlineStr">
-        <is>
-          <t>Режим КЗ</t>
-        </is>
-      </c>
-    </row>
-    <row r="77">
-      <c r="A77" t="inlineStr">
-        <is>
-          <t>Режим перегрузки</t>
-        </is>
-      </c>
-    </row>
-    <row r="78">
-      <c r="A78" t="inlineStr">
-        <is>
-          <t>Обрыв связи датчика</t>
-        </is>
-      </c>
-    </row>
-    <row r="79"/>
+    <row r="27"/>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
